--- a/data/unchecked/manual_collect/southKorea/SouthKoreaCaseStatistics_20200224.xlsx
+++ b/data/unchecked/manual_collect/southKorea/SouthKoreaCaseStatistics_20200224.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\24日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\COVID-19\data\unchecked\manual_collect\southKorea\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10792,7 +10792,7 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10961,10 +10961,10 @@
         <v>3290</v>
       </c>
       <c r="C2" s="22">
-        <v>43884.5</v>
+        <v>43885</v>
       </c>
       <c r="D2" s="22">
-        <v>43885.5</v>
+        <v>43886</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>3291</v>
